--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1589.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1589.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.329403399700445</v>
+        <v>0.415941596031189</v>
       </c>
       <c r="B1">
-        <v>3.229847510044404</v>
+        <v>0.6818171143531799</v>
       </c>
       <c r="C1">
-        <v>5.540802792034143</v>
+        <v>2.134377956390381</v>
       </c>
       <c r="D1">
-        <v>1.668551875019958</v>
+        <v>4.764405727386475</v>
       </c>
       <c r="E1">
-        <v>0.9160280041577842</v>
+        <v>2.145371437072754</v>
       </c>
     </row>
   </sheetData>
